--- a/DB/ERD 약식 - 수정1.xlsx
+++ b/DB/ERD 약식 - 수정1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\2차 프로젝트\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\2mini\hello01\DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D01954C8-F55E-4D16-B99C-4DC8812BFC21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50A7F0F5-F726-4FD2-8676-82411E50E6EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10350" yWindow="2475" windowWidth="18450" windowHeight="11385" activeTab="1" xr2:uid="{7A03FBA1-3EAD-402A-ACA8-B213540A5DFF}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="133">
   <si>
     <t>유저</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -466,6 +466,82 @@
   <si>
     <t>/img/11.png</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>튀김</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피자치즈, 마요네즈, 식용유, 콘옥수수, 만두피</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 피자치즈, 콘옥수수, 마요네즈를 넣고 섞어 충전물을 만든다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 만두피를 얇게 밀고 추전물을 넣어 끝에 물을 묻히고 접어준다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 기름에 튀겨준다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/img/11-1.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/img/11-2.png</t>
+  </si>
+  <si>
+    <t>/img/11-3.png</t>
+  </si>
+  <si>
+    <t>admin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>식빵 츄러스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/img/12.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/img/12-1.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>식빵 6장, 설탕 50g, 버터 60g, 계핏가루 10g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 식빵을 원 하는 굵기로 잘라준다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 식빵 앞뒤에 버터를 바른 뒤 오븐에 7분 정도 익혀준다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 비닐 봉투에 설탕과 계피가루를 넣고 섞어준다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/img/12-2.png</t>
+  </si>
+  <si>
+    <t>/img/12-3.png</t>
   </si>
 </sst>
 </file>
@@ -1250,11 +1326,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB656B59-793B-4425-ACD2-E68AD4637DDD}">
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1658,6 +1732,89 @@
       </c>
       <c r="E26" s="10">
         <v>5</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C27" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="G27" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D28" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="G28" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D29" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="G29" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="10">
+        <v>12</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="E30" s="10">
+        <v>6</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="G30" s="10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C31" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="G31" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D32" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="G32" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="33" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D33" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="G33" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
